--- a/CARF Workbooks/CHN CARF WorkBook.xlsx
+++ b/CARF Workbooks/CHN CARF WorkBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28521"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Quality and Data Management\HMIS CARF DATA\23-24 FY\CARF Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sherryzhang/Documents/Courses/SI699/CARF Workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C74DBD-F854-4990-A522-55F337EF956A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F462D2-532B-E04F-B88B-9676EC1D7976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2583C9A4-B931-4687-9385-5D55CE1C6B3F}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="23260" windowHeight="15580" xr2:uid="{2583C9A4-B931-4687-9385-5D55CE1C6B3F}"/>
   </bookViews>
   <sheets>
     <sheet name="CHN Total" sheetId="28" r:id="rId1"/>
@@ -302,7 +302,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -819,18 +819,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2540FD-A092-4065-A6E8-0DE232D1BA89}">
   <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.6">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -841,29 +841,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="3"/>
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="3"/>
       <c r="C3" s="22"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="22"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="3"/>
       <c r="C5" s="22"/>
     </row>
-    <row r="6" spans="1:3" ht="42">
+    <row r="6" spans="1:3" ht="31" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -873,7 +873,7 @@
       </c>
       <c r="C6" s="23"/>
     </row>
-    <row r="7" spans="1:3" ht="28.15">
+    <row r="7" spans="1:3" ht="31" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
@@ -883,24 +883,24 @@
       </c>
       <c r="C7" s="24"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="3"/>
       <c r="C8" s="22"/>
     </row>
-    <row r="9" spans="1:3" ht="42">
+    <row r="9" spans="1:3" ht="46" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="22"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="3"/>
       <c r="C10" s="22"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
@@ -910,7 +910,7 @@
       </c>
       <c r="C11" s="23"/>
     </row>
-    <row r="12" spans="1:3" ht="28.15">
+    <row r="12" spans="1:3" ht="31" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
@@ -920,7 +920,7 @@
       </c>
       <c r="C12" s="24"/>
     </row>
-    <row r="13" spans="1:3" ht="28.15">
+    <row r="13" spans="1:3" ht="31" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
@@ -930,7 +930,7 @@
       </c>
       <c r="C13" s="23"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
@@ -940,29 +940,29 @@
       </c>
       <c r="C14" s="24"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="3"/>
       <c r="C15" s="22"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="3"/>
       <c r="C16" s="22"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="22"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="3"/>
       <c r="C18" s="22"/>
     </row>
-    <row r="19" spans="1:3" ht="42">
+    <row r="19" spans="1:3" ht="46" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>12</v>
       </c>
@@ -975,7 +975,7 @@
         <v>5.5722246035147882E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="28.15">
+    <row r="20" spans="1:3" ht="31" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>13</v>
       </c>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="28.15">
+    <row r="21" spans="1:3" ht="31" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>14</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>0.64466352336048005</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>15</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>2.5717959708529792E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28.15">
+    <row r="23" spans="1:3" ht="31" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>16</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>4.2863266180882982E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="28.15">
+    <row r="24" spans="1:3" ht="31" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>17</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>1.7145306472353193E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>18</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>0.24174882126018002</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>19</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>8.7012430347192457E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="42">
+    <row r="27" spans="1:3" ht="46" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>20</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>8.5726532361765965E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>21</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>1.5430775825117874E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>22</v>
       </c>
@@ -1105,29 +1105,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="3"/>
       <c r="C30" s="22"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="3"/>
       <c r="C31" s="22"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="22"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="3"/>
       <c r="C33" s="22"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>24</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>0.57179597085297895</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>25</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>0.41748821260180025</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="28.15">
+    <row r="36" spans="1:3" ht="31" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>26</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>4.2863266180882982E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>27</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>8.5726532361765965E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>28</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>3.0004286326618087E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>29</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>1.2858979854264896E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>30</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="28.15">
+    <row r="41" spans="1:3" ht="31" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>31</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="42">
+    <row r="42" spans="1:3" ht="46" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>32</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>21</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>5.1435919417059583E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>22</v>
       </c>
@@ -1270,29 +1270,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="3"/>
       <c r="C45" s="22"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
       <c r="B46" s="3"/>
       <c r="C46" s="22"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="22"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="3"/>
       <c r="C48" s="22"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>34</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>0.10372910415773683</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
         <v>35</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>0.22160308615516502</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>36</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>0.10715816545220745</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
         <v>37</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>6.3866266609515651E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>38</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>0.12987569652807543</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
         <v>39</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>0.13330475782254608</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>40</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>0.10330047149592798</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
         <v>41</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>9.6870981568795547E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>42</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>3.4290612944706388E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="42">
+    <row r="58" spans="1:3" ht="46" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
         <v>32</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>21</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>6.0008572653236173E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
         <v>22</v>
       </c>
@@ -1448,29 +1448,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
       <c r="B61" s="3"/>
       <c r="C61" s="22"/>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="7"/>
       <c r="B62" s="3"/>
       <c r="C62" s="22"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="22"/>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="7"/>
       <c r="B64" s="3"/>
       <c r="C64" s="22"/>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>44</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>1.9425019425019424E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
         <v>45</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>0.9805749805749806</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>21</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>1.7871017871017872E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
         <v>22</v>
       </c>
@@ -1522,29 +1522,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
       <c r="B69" s="20"/>
       <c r="C69" s="25"/>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="7"/>
       <c r="B70" s="3"/>
       <c r="C70" s="22"/>
     </row>
-    <row r="71" spans="1:3" ht="42">
+    <row r="71" spans="1:3" ht="46" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="22"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
       <c r="B72" s="3"/>
       <c r="C72" s="22"/>
     </row>
-    <row r="73" spans="1:3" ht="28.15">
+    <row r="73" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>47</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>0.40567010309278351</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
         <v>48</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>3.2989690721649485E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>49</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>3.2474226804123714E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="28.15">
+    <row r="76" spans="1:3" ht="31" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
         <v>50</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>2.5773195876288658E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="28.15">
+    <row r="77" spans="1:3" ht="31" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>51</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>0.16804123711340208</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
         <v>52</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>7.2164948453608251E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="28.15">
+    <row r="79" spans="1:3" ht="31" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>53</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>8.0927835051546396E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
         <v>54</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>0.24690721649484537</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>22</v>
       </c>
@@ -1661,17 +1661,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="7"/>
       <c r="B82" s="3"/>
       <c r="C82" s="22"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
       <c r="B83" s="3"/>
       <c r="C83" s="22"/>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
         <v>55</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>0.48906986712387485</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
         <v>56</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>0.21260180025717959</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
         <v>57</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>0.22931847406772396</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
         <v>58</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>1.9288469781397342E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="42">
+    <row r="88" spans="1:4" ht="46" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
         <v>32</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>4.7149592798971284E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>21</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>4.5006429489927134E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
         <v>22</v>
       </c>
@@ -1762,17 +1762,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="7"/>
       <c r="B91" s="3"/>
       <c r="C91" s="26"/>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="7"/>
       <c r="B92" s="3"/>
       <c r="C92" s="26"/>
     </row>
-    <row r="93" spans="1:4" ht="69.599999999999994">
+    <row r="93" spans="1:4" ht="76" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>59</v>
       </c>
@@ -1780,13 +1780,13 @@
       <c r="C93" s="25"/>
       <c r="D93" s="3"/>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="25"/>
       <c r="D94" s="3"/>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
         <v>44</v>
       </c>
@@ -1797,7 +1797,7 @@
       <c r="C95" s="27"/>
       <c r="D95" s="3"/>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>45</v>
       </c>
@@ -1808,7 +1808,7 @@
       <c r="C96" s="23"/>
       <c r="D96" s="3"/>
     </row>
-    <row r="97" spans="1:4" ht="42">
+    <row r="97" spans="1:4" ht="46" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
         <v>60</v>
       </c>
@@ -1819,7 +1819,7 @@
       <c r="C97" s="27"/>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
         <v>21</v>
       </c>
@@ -1830,7 +1830,7 @@
       <c r="C98" s="23"/>
       <c r="D98" s="3"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
         <v>22</v>
       </c>
@@ -1841,19 +1841,19 @@
       <c r="C99" s="24"/>
       <c r="D99" s="3"/>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="7"/>
       <c r="B100" s="3"/>
       <c r="C100" s="26"/>
       <c r="D100" s="3"/>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="7"/>
       <c r="B101" s="3"/>
       <c r="C101" s="26"/>
       <c r="D101" s="3"/>
     </row>
-    <row r="102" spans="1:4" ht="83.45">
+    <row r="102" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>61</v>
       </c>
@@ -1867,13 +1867,13 @@
         <v>64</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="33"/>
       <c r="D103" s="3"/>
     </row>
-    <row r="104" spans="1:4" ht="28.15">
+    <row r="104" spans="1:4" ht="31" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>65</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="28.15">
+    <row r="105" spans="1:4" ht="31" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
         <v>66</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="42">
+    <row r="106" spans="1:4" ht="46" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>67</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="28.15">
+    <row r="107" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
         <v>68</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="42">
+    <row r="108" spans="1:4" ht="46" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>69</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="28.15">
+    <row r="109" spans="1:4" ht="31" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
         <v>70</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>71</v>
       </c>
@@ -1992,24 +1992,24 @@
         <v>483</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="7"/>
       <c r="B111" s="3"/>
       <c r="C111" s="26"/>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="7"/>
       <c r="B112" s="3"/>
       <c r="C112" s="26"/>
     </row>
-    <row r="113" spans="1:3" ht="55.9">
+    <row r="113" spans="1:3" ht="61" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="26"/>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="30" t="s">
         <v>73</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="29" t="s">
         <v>74</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="30" t="s">
         <v>22</v>
       </c>
@@ -2045,20 +2045,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B30B46-4E1B-471F-8898-4B9F952A6D8B}">
   <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B111" sqref="B111"/>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B49:B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="26" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="22.83203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="26" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.6">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
         <v>75</v>
       </c>
@@ -2069,23 +2069,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C3" s="22"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="22"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C5" s="22"/>
     </row>
-    <row r="6" spans="1:3" ht="41.45">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="C6" s="23"/>
     </row>
-    <row r="7" spans="1:3" ht="27.6">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
@@ -2103,19 +2103,19 @@
       </c>
       <c r="C7" s="24"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" s="22"/>
     </row>
-    <row r="9" spans="1:3" ht="41.45">
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="22"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" s="22"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="C11" s="23"/>
     </row>
-    <row r="12" spans="1:3" ht="27.6">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="C12" s="24"/>
     </row>
-    <row r="13" spans="1:3" ht="27.6">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="C13" s="23"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
@@ -2152,22 +2152,22 @@
       </c>
       <c r="C14" s="24"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C15" s="22"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C16" s="22"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="22"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C18" s="22"/>
     </row>
-    <row r="19" spans="1:3" ht="41.45">
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
         <v>12</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>3.4762456546929316E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="27.6">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
         <v>13</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="27.6">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>14</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>0.64889918887601394</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
         <v>15</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="27.6">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
         <v>16</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="27.6">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="s">
         <v>17</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>2.3174971031286211E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
         <v>18</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>0.25840092699884126</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="s">
         <v>19</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>6.3731170336037077E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="41.45">
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
         <v>20</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="s">
         <v>21</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>2.3174971031286212E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
         <v>22</v>
       </c>
@@ -2300,22 +2300,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C30" s="22"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C31" s="22"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="22"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C33" s="22"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
         <v>24</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>0.54924681344148318</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="s">
         <v>25</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>0.44727694090382386</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="27.6">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
         <v>26</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
         <v>27</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
         <v>28</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>1.1587485515643105E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="s">
         <v>29</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
         <v>30</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="27.6">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="s">
         <v>31</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="41.45">
+    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
         <v>32</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="s">
         <v>21</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>2.3174971031286211E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
         <v>22</v>
       </c>
@@ -2448,22 +2448,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C45" s="22"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C46" s="22"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C47" s="22"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C48" s="22"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
         <v>34</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>8.574739281575898E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A50" s="16" t="s">
         <v>35</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>0.24217844727694091</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
         <v>36</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>0.12282734646581692</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A52" s="11" t="s">
         <v>37</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>7.3001158748551565E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
         <v>38</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>0.11471610660486674</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A54" s="11" t="s">
         <v>39</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>0.12746234067207415</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
         <v>40</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>0.11587485515643106</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A56" s="11" t="s">
         <v>41</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>8.8064889918887598E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
         <v>42</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>3.0127462340672075E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="41.45">
+    <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A58" s="11" t="s">
         <v>32</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
         <v>21</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A60" s="11" t="s">
         <v>22</v>
       </c>
@@ -2608,22 +2608,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C61" s="22"/>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C62" s="22"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A63" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C63" s="22"/>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C64" s="22"/>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A65" s="8" t="s">
         <v>44</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>1.4925373134328358E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A66" s="11" t="s">
         <v>45</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>0.9850746268656716</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A67" s="8" t="s">
         <v>21</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>1.0660980810234541E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A68" s="11" t="s">
         <v>22</v>
       </c>
@@ -2672,23 +2672,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B69" s="20"/>
       <c r="C69" s="25"/>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C70" s="22"/>
     </row>
-    <row r="71" spans="1:3" ht="41.45">
+    <row r="71" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A71" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C71" s="22"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C72" s="22"/>
     </row>
-    <row r="73" spans="1:3" ht="27.6">
+    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A73" s="8" t="s">
         <v>47</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>0.41562064156206413</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A74" s="11" t="s">
         <v>48</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>3.626220362622036E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A75" s="8" t="s">
         <v>49</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>3.2078103207810321E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="27.6">
+    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A76" s="11" t="s">
         <v>50</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>2.9288702928870293E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="27.6">
+    <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A77" s="8" t="s">
         <v>51</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>0.17433751743375175</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A78" s="11" t="s">
         <v>52</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>8.368200836820083E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="27.6">
+    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A79" s="8" t="s">
         <v>53</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>7.1129707112970716E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A80" s="11" t="s">
         <v>54</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>0.23291492329149233</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A81" s="8" t="s">
         <v>22</v>
       </c>
@@ -2797,13 +2797,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C82" s="22"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C83" s="22"/>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A84" s="11" t="s">
         <v>55</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>0.47624565469293162</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A85" s="8" t="s">
         <v>56</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>0.2074159907300116</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A86" s="11" t="s">
         <v>57</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>0.24217844727694091</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A87" s="8" t="s">
         <v>58</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>6.9524913093858632E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="41.45">
+    <row r="88" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A88" s="11" t="s">
         <v>32</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>1.1587485515643105E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A89" s="8" t="s">
         <v>21</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>6.6048667439165695E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A90" s="15" t="s">
         <v>22</v>
       </c>
@@ -2888,17 +2888,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="82.9">
+    <row r="93" spans="1:3" ht="75" x14ac:dyDescent="0.15">
       <c r="A93" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C93" s="25"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="3"/>
       <c r="C94" s="25"/>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A95" s="11" t="s">
         <v>44</v>
       </c>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="C95" s="27"/>
     </row>
-    <row r="96" spans="1:3" ht="14.45">
+    <row r="96" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>45</v>
       </c>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="C96" s="23"/>
     </row>
-    <row r="97" spans="1:4" ht="41.45">
+    <row r="97" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A97" s="11" t="s">
         <v>60</v>
       </c>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="C97" s="27"/>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A98" s="8" t="s">
         <v>21</v>
       </c>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="C98" s="23"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A99" s="11" t="s">
         <v>22</v>
       </c>
@@ -2944,7 +2944,7 @@
       </c>
       <c r="C99" s="24"/>
     </row>
-    <row r="102" spans="1:4" ht="82.9">
+    <row r="102" spans="1:4" ht="90" x14ac:dyDescent="0.15">
       <c r="A102" s="6" t="s">
         <v>61</v>
       </c>
@@ -2958,11 +2958,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B103" s="7"/>
       <c r="C103" s="33"/>
     </row>
-    <row r="104" spans="1:4" ht="27.6">
+    <row r="104" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A104" s="8" t="s">
         <v>65</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="27.6">
+    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A105" s="11" t="s">
         <v>66</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="41.45">
+    <row r="106" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A106" s="8" t="s">
         <v>67</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="27.6">
+    <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A107" s="11" t="s">
         <v>68</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="55.15">
+    <row r="108" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A108" s="8" t="s">
         <v>69</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="27.6">
+    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A109" s="11" t="s">
         <v>70</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A110" s="8" t="s">
         <v>71</v>
       </c>
@@ -3060,16 +3060,16 @@
         <v>88</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="55.15">
+    <row r="113" spans="1:2" ht="60" x14ac:dyDescent="0.15">
       <c r="A113" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="14.45">
+    <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
     </row>
-    <row r="115" spans="1:2" ht="14.45">
+    <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="30" t="s">
         <v>73</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="14.45">
+    <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="29" t="s">
         <v>74</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="14.45">
+    <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="30" t="s">
         <v>22</v>
       </c>
@@ -3104,19 +3104,19 @@
   <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C108" sqref="C108"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49:B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="21.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.6">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
         <v>76</v>
       </c>
@@ -3127,23 +3127,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="22"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C5" s="22"/>
     </row>
-    <row r="6" spans="1:3" ht="55.15">
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -3152,7 +3152,7 @@
       </c>
       <c r="C6" s="23"/>
     </row>
-    <row r="7" spans="1:3" ht="41.45">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
@@ -3161,19 +3161,19 @@
       </c>
       <c r="C7" s="24"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" s="22"/>
     </row>
-    <row r="9" spans="1:3" ht="41.45">
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="22"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" s="22"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
@@ -3182,7 +3182,7 @@
       </c>
       <c r="C11" s="23"/>
     </row>
-    <row r="12" spans="1:3" ht="27.6">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="C12" s="24"/>
     </row>
-    <row r="13" spans="1:3" ht="27.6">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="C13" s="23"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
@@ -3209,22 +3209,22 @@
       </c>
       <c r="C14" s="24"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" ht="41.45">
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
         <v>12</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="27.6">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
         <v>13</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="41.45">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>14</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>0.48979591836734693</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
         <v>15</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>3.4013605442176869E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="27.6">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
         <v>16</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="27.6">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="s">
         <v>17</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>3.4013605442176869E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
         <v>18</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>0.36394557823129253</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="s">
         <v>19</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>0.12244897959183673</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="41.45">
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
         <v>20</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>3.4013605442176869E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="s">
         <v>21</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>1.3605442176870748E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
         <v>22</v>
       </c>
@@ -3357,22 +3357,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
         <v>24</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>0.55782312925170063</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="s">
         <v>25</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="27.6">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
         <v>26</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>3.4013605442176869E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
         <v>27</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
         <v>28</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="s">
         <v>29</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
         <v>30</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="27.6">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="s">
         <v>31</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="41.45">
+    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
         <v>32</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="s">
         <v>21</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>1.020408163265306E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
         <v>22</v>
       </c>
@@ -3505,22 +3505,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C45" s="5"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C46" s="5"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C48" s="5"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
         <v>34</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>7.4829931972789115E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A50" s="16" t="s">
         <v>35</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>0.19727891156462585</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
         <v>36</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>0.11224489795918367</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A52" s="11" t="s">
         <v>37</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>5.7823129251700682E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
         <v>38</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>0.12244897959183673</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A54" s="11" t="s">
         <v>39</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>0.13945578231292516</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
         <v>40</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>9.8639455782312924E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A56" s="11" t="s">
         <v>41</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>0.1326530612244898</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
         <v>42</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>4.0816326530612242E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="41.45">
+    <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A58" s="11" t="s">
         <v>32</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
         <v>21</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>2.3809523809523808E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A60" s="11" t="s">
         <v>22</v>
       </c>
@@ -3665,22 +3665,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C61" s="5"/>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C62" s="5"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A63" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C63" s="5"/>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C64" s="5"/>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A65" s="8" t="s">
         <v>44</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>1.7241379310344827E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A66" s="11" t="s">
         <v>45</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>0.97126436781609193</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A67" s="11" t="s">
         <v>21</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>1.1494252873563218E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A68" s="8" t="s">
         <v>22</v>
       </c>
@@ -3729,23 +3729,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B69" s="20"/>
       <c r="C69" s="21"/>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C70" s="5"/>
     </row>
-    <row r="71" spans="1:3" ht="55.15">
+    <row r="71" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A71" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C71" s="5"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C72" s="5"/>
     </row>
-    <row r="73" spans="1:3" ht="27.6">
+    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A73" s="8" t="s">
         <v>47</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>0.43205574912891986</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="27.6">
+    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A74" s="11" t="s">
         <v>48</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>4.878048780487805E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A75" s="8" t="s">
         <v>49</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>4.878048780487805E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="27.6">
+    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A76" s="11" t="s">
         <v>50</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>1.7421602787456445E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="27.6">
+    <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A77" s="8" t="s">
         <v>51</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A78" s="11" t="s">
         <v>52</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>3.4843205574912892E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="27.6">
+    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A79" s="8" t="s">
         <v>53</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>9.4076655052264813E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A80" s="11" t="s">
         <v>54</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>0.21254355400696864</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A81" s="8" t="s">
         <v>22</v>
       </c>
@@ -3854,13 +3854,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C82" s="5"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A84" s="11" t="s">
         <v>55</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>0.45578231292517007</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A85" s="8" t="s">
         <v>56</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>0.21768707482993196</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A86" s="11" t="s">
         <v>57</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>0.28911564625850339</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A87" s="8" t="s">
         <v>58</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>1.7006802721088437E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="41.45">
+    <row r="88" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A88" s="11" t="s">
         <v>32</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A89" s="8" t="s">
         <v>21</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>2.0408163265306121E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A90" s="15" t="s">
         <v>22</v>
       </c>
@@ -3945,17 +3945,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="82.9">
+    <row r="93" spans="1:3" ht="75" x14ac:dyDescent="0.15">
       <c r="A93" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C93" s="25"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="3"/>
       <c r="C94" s="25"/>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A95" s="11" t="s">
         <v>44</v>
       </c>
@@ -3964,7 +3964,7 @@
       </c>
       <c r="C95" s="27"/>
     </row>
-    <row r="96" spans="1:3" ht="14.45">
+    <row r="96" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>45</v>
       </c>
@@ -3973,7 +3973,7 @@
       </c>
       <c r="C96" s="23"/>
     </row>
-    <row r="97" spans="1:4" ht="41.45">
+    <row r="97" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A97" s="11" t="s">
         <v>60</v>
       </c>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="C97" s="27"/>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A98" s="8" t="s">
         <v>21</v>
       </c>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="C98" s="23"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A99" s="11" t="s">
         <v>22</v>
       </c>
@@ -4001,13 +4001,13 @@
       </c>
       <c r="C99" s="24"/>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C100" s="26"/>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C101" s="26"/>
     </row>
-    <row r="102" spans="1:4" ht="82.9">
+    <row r="102" spans="1:4" ht="90" x14ac:dyDescent="0.15">
       <c r="A102" s="6" t="s">
         <v>61</v>
       </c>
@@ -4021,11 +4021,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B103" s="7"/>
       <c r="C103" s="33"/>
     </row>
-    <row r="104" spans="1:4" ht="27.6">
+    <row r="104" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A104" s="8" t="s">
         <v>65</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="27.6">
+    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A105" s="11" t="s">
         <v>66</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="41.45">
+    <row r="106" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A106" s="8" t="s">
         <v>67</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="27.6">
+    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A107" s="11" t="s">
         <v>68</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="55.15">
+    <row r="108" spans="1:4" ht="60" x14ac:dyDescent="0.15">
       <c r="A108" s="8" t="s">
         <v>69</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="41.45">
+    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A109" s="11" t="s">
         <v>70</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A110" s="8" t="s">
         <v>71</v>
       </c>
@@ -4123,16 +4123,16 @@
         <v>56</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="55.15">
+    <row r="113" spans="1:2" ht="60" x14ac:dyDescent="0.15">
       <c r="A113" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="14.45">
+    <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
     </row>
-    <row r="115" spans="1:2" ht="14.45">
+    <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="30" t="s">
         <v>73</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="14.45">
+    <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="29" t="s">
         <v>74</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="14.45">
+    <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="30" t="s">
         <v>22</v>
       </c>
@@ -4167,19 +4167,19 @@
   <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D111" sqref="D111"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49:B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="22.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.6">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
         <v>77</v>
       </c>
@@ -4190,23 +4190,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="22"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C5" s="22"/>
     </row>
-    <row r="6" spans="1:3" ht="41.45">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -4215,7 +4215,7 @@
       </c>
       <c r="C6" s="23"/>
     </row>
-    <row r="7" spans="1:3" ht="27.6">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
@@ -4224,19 +4224,19 @@
       </c>
       <c r="C7" s="24"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" s="22"/>
     </row>
-    <row r="9" spans="1:3" ht="41.45">
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="22"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" s="22"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="C11" s="23"/>
     </row>
-    <row r="12" spans="1:3" ht="27.6">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="C12" s="24"/>
     </row>
-    <row r="13" spans="1:3" ht="27.6">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
@@ -4263,7 +4263,7 @@
       </c>
       <c r="C13" s="23"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
@@ -4273,22 +4273,22 @@
       </c>
       <c r="C14" s="24"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" ht="41.45">
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
         <v>12</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>8.5470085470085479E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="27.6">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
         <v>13</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="27.6">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>14</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>0.7496947496947497</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
         <v>15</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>1.221001221001221E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="27.6">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
         <v>16</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="27.6">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="s">
         <v>17</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
         <v>18</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>0.12332112332112333</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="s">
         <v>19</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>0.10256410256410256</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="41.45">
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
         <v>20</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>1.221001221001221E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="s">
         <v>21</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>1.3431013431013432E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
         <v>22</v>
       </c>
@@ -4421,22 +4421,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
         <v>24</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>0.61782661782661785</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="s">
         <v>25</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>0.3711843711843712</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="27.6">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
         <v>26</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
         <v>27</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
         <v>28</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>1.221001221001221E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="s">
         <v>29</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>2.442002442002442E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
         <v>30</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="27.6">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="s">
         <v>31</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="41.45">
+    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
         <v>32</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="s">
         <v>21</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>7.326007326007326E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
         <v>22</v>
       </c>
@@ -4569,22 +4569,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C45" s="5"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C46" s="5"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C48" s="5"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
         <v>34</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>0.15873015873015872</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A50" s="16" t="s">
         <v>35</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>0.24908424908424909</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
         <v>36</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>0.11477411477411477</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A52" s="11" t="s">
         <v>37</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>5.6166056166056168E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
         <v>38</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>0.14652014652014653</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A54" s="11" t="s">
         <v>39</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>0.10866910866910867</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
         <v>40</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>7.448107448107448E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A56" s="11" t="s">
         <v>41</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>5.6166056166056168E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
         <v>42</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>2.9304029304029304E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="41.45">
+    <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A58" s="11" t="s">
         <v>32</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
         <v>21</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>6.105006105006105E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A60" s="11" t="s">
         <v>22</v>
       </c>
@@ -4729,22 +4729,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C61" s="5"/>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C62" s="5"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A63" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C63" s="5"/>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C64" s="5"/>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A65" s="8" t="s">
         <v>44</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>2.8497409326424871E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A66" s="11" t="s">
         <v>45</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>0.93005181347150256</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A67" s="11" t="s">
         <v>21</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>4.145077720207254E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A68" s="8" t="s">
         <v>22</v>
       </c>
@@ -4793,23 +4793,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B69" s="20"/>
       <c r="C69" s="21"/>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C70" s="5"/>
     </row>
-    <row r="71" spans="1:3" ht="41.45">
+    <row r="71" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A71" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C71" s="5"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C72" s="5"/>
     </row>
-    <row r="73" spans="1:3" ht="27.6">
+    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A73" s="8" t="s">
         <v>47</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>0.34793814432989689</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A74" s="11" t="s">
         <v>48</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>1.5463917525773196E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A75" s="8" t="s">
         <v>49</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>7.7319587628865982E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="27.6">
+    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A76" s="11" t="s">
         <v>50</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>5.1546391752577319E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="27.6">
+    <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A77" s="8" t="s">
         <v>51</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>0.18298969072164947</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A78" s="11" t="s">
         <v>52</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>1.2886597938144329E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="27.6">
+    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A79" s="8" t="s">
         <v>53</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>0.12886597938144329</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A80" s="11" t="s">
         <v>54</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>0.29896907216494845</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A81" s="8" t="s">
         <v>22</v>
       </c>
@@ -4918,13 +4918,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C82" s="5"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A84" s="11" t="s">
         <v>55</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>0.61172161172161177</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A85" s="8" t="s">
         <v>56</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>0.21489621489621491</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A86" s="11" t="s">
         <v>57</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A87" s="8" t="s">
         <v>58</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>3.4188034188034191E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="41.45">
+    <row r="88" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A88" s="11" t="s">
         <v>32</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>1.221001221001221E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A89" s="8" t="s">
         <v>21</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>5.0061050061050064E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A90" s="15" t="s">
         <v>22</v>
       </c>
@@ -5009,17 +5009,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="82.9">
+    <row r="93" spans="1:3" ht="75" x14ac:dyDescent="0.15">
       <c r="A93" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C93" s="25"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="3"/>
       <c r="C94" s="25"/>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A95" s="11" t="s">
         <v>44</v>
       </c>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="C95" s="27"/>
     </row>
-    <row r="96" spans="1:3" ht="14.45">
+    <row r="96" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>45</v>
       </c>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="C96" s="23"/>
     </row>
-    <row r="97" spans="1:4" ht="41.45">
+    <row r="97" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A97" s="11" t="s">
         <v>60</v>
       </c>
@@ -5046,7 +5046,7 @@
       </c>
       <c r="C97" s="27"/>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A98" s="8" t="s">
         <v>21</v>
       </c>
@@ -5055,7 +5055,7 @@
       </c>
       <c r="C98" s="23"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A99" s="11" t="s">
         <v>22</v>
       </c>
@@ -5065,13 +5065,13 @@
       </c>
       <c r="C99" s="24"/>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C100" s="26"/>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C101" s="26"/>
     </row>
-    <row r="102" spans="1:4" ht="82.9">
+    <row r="102" spans="1:4" ht="90" x14ac:dyDescent="0.15">
       <c r="A102" s="6" t="s">
         <v>61</v>
       </c>
@@ -5085,11 +5085,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B103" s="7"/>
       <c r="C103" s="33"/>
     </row>
-    <row r="104" spans="1:4" ht="27.6">
+    <row r="104" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A104" s="8" t="s">
         <v>65</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="27.6">
+    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A105" s="11" t="s">
         <v>66</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="41.45">
+    <row r="106" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A106" s="8" t="s">
         <v>67</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="27.6">
+    <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A107" s="11" t="s">
         <v>68</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="55.15">
+    <row r="108" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A108" s="8" t="s">
         <v>69</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="27.6">
+    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A109" s="11" t="s">
         <v>70</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A110" s="8" t="s">
         <v>71</v>
       </c>
@@ -5187,16 +5187,16 @@
         <v>226</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="55.15">
+    <row r="113" spans="1:2" ht="60" x14ac:dyDescent="0.15">
       <c r="A113" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="14.45">
+    <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
     </row>
-    <row r="115" spans="1:2" ht="14.45">
+    <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="30" t="s">
         <v>73</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="14.45">
+    <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="29" t="s">
         <v>74</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="14.45">
+    <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="30" t="s">
         <v>22</v>
       </c>
@@ -5231,19 +5231,19 @@
   <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B111" sqref="B111"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49:B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="22.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.6">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
         <v>78</v>
       </c>
@@ -5254,23 +5254,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="22"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C5" s="22"/>
     </row>
-    <row r="6" spans="1:3" ht="41.45">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -5279,7 +5279,7 @@
       </c>
       <c r="C6" s="23"/>
     </row>
-    <row r="7" spans="1:3" ht="27.6">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
@@ -5288,19 +5288,19 @@
       </c>
       <c r="C7" s="24"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" s="22"/>
     </row>
-    <row r="9" spans="1:3" ht="41.45">
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="22"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" s="22"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
@@ -5309,7 +5309,7 @@
       </c>
       <c r="C11" s="23"/>
     </row>
-    <row r="12" spans="1:3" ht="27.6">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
@@ -5318,7 +5318,7 @@
       </c>
       <c r="C12" s="24"/>
     </row>
-    <row r="13" spans="1:3" ht="27.6">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
@@ -5327,7 +5327,7 @@
       </c>
       <c r="C13" s="23"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
@@ -5337,22 +5337,22 @@
       </c>
       <c r="C14" s="24"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" ht="41.45">
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
         <v>12</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>1.7241379310344827E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="27.6">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
         <v>13</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="27.6">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>14</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>0.7068965517241379</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
         <v>15</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="27.6">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
         <v>16</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="27.6">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="s">
         <v>17</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
         <v>18</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>0.10344827586206896</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="s">
         <v>19</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>0.17241379310344829</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="41.45">
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
         <v>20</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="s">
         <v>21</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
         <v>22</v>
       </c>
@@ -5485,22 +5485,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
         <v>24</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>0.55172413793103448</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="s">
         <v>25</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>0.44827586206896552</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="27.6">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
         <v>26</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
         <v>27</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
         <v>28</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="s">
         <v>29</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
         <v>30</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="27.6">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="s">
         <v>31</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="41.45">
+    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
         <v>32</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="s">
         <v>21</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
         <v>22</v>
       </c>
@@ -5633,22 +5633,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C45" s="5"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C46" s="5"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C48" s="5"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
         <v>34</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>0.13793103448275862</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A50" s="16" t="s">
         <v>35</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>0.2413793103448276</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
         <v>36</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>0.1206896551724138</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A52" s="11" t="s">
         <v>37</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>0.1206896551724138</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
         <v>38</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>6.8965517241379309E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A54" s="11" t="s">
         <v>39</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>0.17241379310344829</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
         <v>40</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>5.1724137931034482E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A56" s="11" t="s">
         <v>41</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>6.8965517241379309E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
         <v>42</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>1.7241379310344827E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="41.45">
+    <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A58" s="11" t="s">
         <v>32</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
         <v>21</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A60" s="11" t="s">
         <v>22</v>
       </c>
@@ -5793,22 +5793,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C61" s="5"/>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C62" s="5"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A63" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C63" s="5"/>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C64" s="5"/>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A65" s="8" t="s">
         <v>44</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A66" s="11" t="s">
         <v>45</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>0.96551724137931039</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A67" s="11" t="s">
         <v>21</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A68" s="8" t="s">
         <v>22</v>
       </c>
@@ -5857,23 +5857,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B69" s="20"/>
       <c r="C69" s="21"/>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C70" s="5"/>
     </row>
-    <row r="71" spans="1:3" ht="41.45">
+    <row r="71" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A71" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C71" s="5"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C72" s="5"/>
     </row>
-    <row r="73" spans="1:3" ht="27.6">
+    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A73" s="8" t="s">
         <v>47</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A74" s="11" t="s">
         <v>48</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A75" s="8" t="s">
         <v>49</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="27.6">
+    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A76" s="11" t="s">
         <v>50</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="27.6">
+    <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A77" s="8" t="s">
         <v>51</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A78" s="11" t="s">
         <v>52</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="27.6">
+    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A79" s="8" t="s">
         <v>53</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A80" s="11" t="s">
         <v>54</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A81" s="8" t="s">
         <v>22</v>
       </c>
@@ -5982,13 +5982,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C82" s="5"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A84" s="11" t="s">
         <v>55</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>0.56896551724137934</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A85" s="8" t="s">
         <v>56</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>0.2413793103448276</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A86" s="11" t="s">
         <v>57</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>0.18965517241379309</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A87" s="8" t="s">
         <v>58</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="41.45">
+    <row r="88" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A88" s="11" t="s">
         <v>32</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A89" s="8" t="s">
         <v>21</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A90" s="15" t="s">
         <v>22</v>
       </c>
@@ -6073,17 +6073,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="82.9">
+    <row r="93" spans="1:3" ht="75" x14ac:dyDescent="0.15">
       <c r="A93" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C93" s="25"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="3"/>
       <c r="C94" s="25"/>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A95" s="11" t="s">
         <v>44</v>
       </c>
@@ -6092,7 +6092,7 @@
       </c>
       <c r="C95" s="27"/>
     </row>
-    <row r="96" spans="1:3" ht="14.45">
+    <row r="96" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>45</v>
       </c>
@@ -6101,7 +6101,7 @@
       </c>
       <c r="C96" s="23"/>
     </row>
-    <row r="97" spans="1:4" ht="41.45">
+    <row r="97" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A97" s="11" t="s">
         <v>60</v>
       </c>
@@ -6110,7 +6110,7 @@
       </c>
       <c r="C97" s="27"/>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A98" s="8" t="s">
         <v>21</v>
       </c>
@@ -6119,7 +6119,7 @@
       </c>
       <c r="C98" s="23"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A99" s="11" t="s">
         <v>22</v>
       </c>
@@ -6129,13 +6129,13 @@
       </c>
       <c r="C99" s="24"/>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C100" s="26"/>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C101" s="26"/>
     </row>
-    <row r="102" spans="1:4" ht="82.9">
+    <row r="102" spans="1:4" ht="90" x14ac:dyDescent="0.15">
       <c r="A102" s="6" t="s">
         <v>61</v>
       </c>
@@ -6149,11 +6149,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B103" s="7"/>
       <c r="C103" s="33"/>
     </row>
-    <row r="104" spans="1:4" ht="27.6">
+    <row r="104" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A104" s="8" t="s">
         <v>65</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="27.6">
+    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A105" s="11" t="s">
         <v>66</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="41.45">
+    <row r="106" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A106" s="8" t="s">
         <v>67</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="27.6">
+    <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A107" s="11" t="s">
         <v>68</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="55.15">
+    <row r="108" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A108" s="8" t="s">
         <v>69</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="27.6">
+    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A109" s="11" t="s">
         <v>70</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A110" s="8" t="s">
         <v>71</v>
       </c>
@@ -6251,16 +6251,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="55.15">
+    <row r="113" spans="1:2" ht="60" x14ac:dyDescent="0.15">
       <c r="A113" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="14.45">
+    <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
     </row>
-    <row r="115" spans="1:2" ht="14.45">
+    <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="30" t="s">
         <v>73</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="14.45">
+    <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="29" t="s">
         <v>74</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="14.45">
+    <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="30" t="s">
         <v>22</v>
       </c>
@@ -6295,19 +6295,19 @@
   <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D111" sqref="D111"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49:B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="22.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.6">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
         <v>79</v>
       </c>
@@ -6318,23 +6318,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="22"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C5" s="22"/>
     </row>
-    <row r="6" spans="1:3" ht="41.45">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -6343,7 +6343,7 @@
       </c>
       <c r="C6" s="23"/>
     </row>
-    <row r="7" spans="1:3" ht="27.6">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
@@ -6352,19 +6352,19 @@
       </c>
       <c r="C7" s="24"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" s="22"/>
     </row>
-    <row r="9" spans="1:3" ht="41.45">
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="22"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" s="22"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
@@ -6373,7 +6373,7 @@
       </c>
       <c r="C11" s="23"/>
     </row>
-    <row r="12" spans="1:3" ht="27.6">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
@@ -6382,7 +6382,7 @@
       </c>
       <c r="C12" s="24"/>
     </row>
-    <row r="13" spans="1:3" ht="27.6">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
@@ -6391,7 +6391,7 @@
       </c>
       <c r="C13" s="23"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
@@ -6401,22 +6401,22 @@
       </c>
       <c r="C14" s="24"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" ht="41.45">
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
         <v>12</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="27.6">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
         <v>13</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="27.6">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>14</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>0.45081967213114754</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
         <v>15</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>1.6393442622950821E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="27.6">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
         <v>16</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>8.1967213114754103E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="27.6">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="s">
         <v>17</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>8.1967213114754103E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
         <v>18</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>0.46721311475409838</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="s">
         <v>19</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>4.9180327868852458E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="41.45">
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
         <v>20</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="s">
         <v>21</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
         <v>22</v>
       </c>
@@ -6549,22 +6549,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
         <v>24</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>0.48360655737704916</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="s">
         <v>25</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>0.45081967213114754</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="27.6">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
         <v>26</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
         <v>27</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>1.6393442622950821E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
         <v>28</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>4.0983606557377046E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="s">
         <v>29</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>8.1967213114754103E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
         <v>30</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="27.6">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="s">
         <v>31</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="41.45">
+    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
         <v>32</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="s">
         <v>21</v>
       </c>
@@ -6684,7 +6684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
         <v>22</v>
       </c>
@@ -6697,22 +6697,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C45" s="5"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C46" s="5"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C48" s="5"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
         <v>34</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A50" s="16" t="s">
         <v>35</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
         <v>36</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A52" s="11" t="s">
         <v>37</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>4.9180327868852458E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
         <v>38</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>0.1721311475409836</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A54" s="11" t="s">
         <v>39</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>0.24590163934426229</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
         <v>40</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>0.20491803278688525</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A56" s="11" t="s">
         <v>41</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>0.25409836065573771</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
         <v>42</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>7.3770491803278687E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="41.45">
+    <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A58" s="11" t="s">
         <v>32</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
         <v>21</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A60" s="11" t="s">
         <v>22</v>
       </c>
@@ -6857,22 +6857,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C61" s="5"/>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C62" s="5"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A63" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C63" s="5"/>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C64" s="5"/>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A65" s="8" t="s">
         <v>44</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>8.1967213114754103E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A66" s="11" t="s">
         <v>45</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>0.99180327868852458</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A67" s="8" t="s">
         <v>21</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A68" s="11" t="s">
         <v>22</v>
       </c>
@@ -6921,23 +6921,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B69" s="20"/>
       <c r="C69" s="21"/>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C70" s="5"/>
     </row>
-    <row r="71" spans="1:3" ht="41.45">
+    <row r="71" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A71" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C71" s="5"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C72" s="5"/>
     </row>
-    <row r="73" spans="1:3" ht="27.6">
+    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A73" s="8" t="s">
         <v>47</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>0.44061302681992337</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A74" s="11" t="s">
         <v>48</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>4.2145593869731802E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A75" s="8" t="s">
         <v>49</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>5.7471264367816091E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="27.6">
+    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A76" s="11" t="s">
         <v>50</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>4.2145593869731802E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="27.6">
+    <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A77" s="8" t="s">
         <v>51</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>0.15708812260536398</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A78" s="11" t="s">
         <v>52</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>3.8314176245210726E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="27.6">
+    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A79" s="8" t="s">
         <v>53</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>2.2988505747126436E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A80" s="11" t="s">
         <v>54</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>0.23371647509578544</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A81" s="8" t="s">
         <v>22</v>
       </c>
@@ -7046,13 +7046,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C82" s="5"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A84" s="11" t="s">
         <v>55</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>2.4590163934426229E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A85" s="8" t="s">
         <v>56</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>0.22131147540983606</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A86" s="11" t="s">
         <v>57</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>0.75409836065573765</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A87" s="8" t="s">
         <v>58</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="41.45">
+    <row r="88" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A88" s="11" t="s">
         <v>32</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A89" s="8" t="s">
         <v>21</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A90" s="15" t="s">
         <v>22</v>
       </c>
@@ -7137,17 +7137,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="82.9">
+    <row r="93" spans="1:3" ht="75" x14ac:dyDescent="0.15">
       <c r="A93" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C93" s="25"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="3"/>
       <c r="C94" s="25"/>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A95" s="11" t="s">
         <v>44</v>
       </c>
@@ -7156,7 +7156,7 @@
       </c>
       <c r="C95" s="27"/>
     </row>
-    <row r="96" spans="1:3" ht="14.45">
+    <row r="96" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>45</v>
       </c>
@@ -7165,7 +7165,7 @@
       </c>
       <c r="C96" s="23"/>
     </row>
-    <row r="97" spans="1:4" ht="41.45">
+    <row r="97" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A97" s="11" t="s">
         <v>60</v>
       </c>
@@ -7174,7 +7174,7 @@
       </c>
       <c r="C97" s="27"/>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A98" s="8" t="s">
         <v>21</v>
       </c>
@@ -7183,7 +7183,7 @@
       </c>
       <c r="C98" s="23"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A99" s="11" t="s">
         <v>22</v>
       </c>
@@ -7193,13 +7193,13 @@
       </c>
       <c r="C99" s="24"/>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C100" s="26"/>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C101" s="26"/>
     </row>
-    <row r="102" spans="1:4" ht="82.9">
+    <row r="102" spans="1:4" ht="90" x14ac:dyDescent="0.15">
       <c r="A102" s="6" t="s">
         <v>61</v>
       </c>
@@ -7213,11 +7213,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B103" s="7"/>
       <c r="C103" s="33"/>
     </row>
-    <row r="104" spans="1:4" ht="27.6">
+    <row r="104" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A104" s="8" t="s">
         <v>65</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="27.6">
+    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A105" s="11" t="s">
         <v>66</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="41.45">
+    <row r="106" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A106" s="8" t="s">
         <v>67</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="27.6">
+    <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A107" s="11" t="s">
         <v>68</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="55.15">
+    <row r="108" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A108" s="8" t="s">
         <v>69</v>
       </c>
@@ -7287,7 +7287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="27.6">
+    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A109" s="11" t="s">
         <v>70</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A110" s="8" t="s">
         <v>71</v>
       </c>
@@ -7315,16 +7315,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="55.15">
+    <row r="113" spans="1:2" ht="60" x14ac:dyDescent="0.15">
       <c r="A113" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="14.45">
+    <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
     </row>
-    <row r="115" spans="1:2" ht="14.45">
+    <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="30" t="s">
         <v>73</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="14.45">
+    <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="29" t="s">
         <v>74</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="14.45">
+    <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="30" t="s">
         <v>22</v>
       </c>
@@ -7359,19 +7359,19 @@
   <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F109" sqref="F109"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49:B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="22.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.6">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
         <v>80</v>
       </c>
@@ -7382,23 +7382,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="22"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C5" s="22"/>
     </row>
-    <row r="6" spans="1:3" ht="41.45">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -7407,7 +7407,7 @@
       </c>
       <c r="C6" s="23"/>
     </row>
-    <row r="7" spans="1:3" ht="27.6">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
@@ -7416,19 +7416,19 @@
       </c>
       <c r="C7" s="24"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" s="22"/>
     </row>
-    <row r="9" spans="1:3" ht="41.45">
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="22"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" s="22"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
@@ -7437,7 +7437,7 @@
       </c>
       <c r="C11" s="23"/>
     </row>
-    <row r="12" spans="1:3" ht="27.6">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
@@ -7446,7 +7446,7 @@
       </c>
       <c r="C12" s="24"/>
     </row>
-    <row r="13" spans="1:3" ht="27.6">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
@@ -7455,7 +7455,7 @@
       </c>
       <c r="C13" s="23"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
@@ -7464,22 +7464,22 @@
       </c>
       <c r="C14" s="24"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" ht="41.45">
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
         <v>12</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>1.6129032258064516E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="27.6">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
         <v>13</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="27.6">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>14</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>0.32258064516129031</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
         <v>15</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>3.2258064516129031E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="27.6">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
         <v>16</v>
       </c>
@@ -7539,7 +7539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="27.6">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="s">
         <v>17</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
         <v>18</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>0.62903225806451613</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="s">
         <v>19</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="41.45">
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
         <v>20</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="s">
         <v>21</v>
       </c>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
         <v>22</v>
       </c>
@@ -7612,22 +7612,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
         <v>24</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>0.45161290322580644</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="s">
         <v>25</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>0.54838709677419351</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="27.6">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
         <v>26</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
         <v>27</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
         <v>28</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="s">
         <v>29</v>
       </c>
@@ -7699,7 +7699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
         <v>30</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="27.6">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="s">
         <v>31</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="41.45">
+    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
         <v>32</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="s">
         <v>21</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
         <v>22</v>
       </c>
@@ -7760,22 +7760,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C45" s="5"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C46" s="5"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C48" s="5"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
         <v>34</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A50" s="16" t="s">
         <v>35</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
         <v>36</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A52" s="11" t="s">
         <v>37</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>4.8387096774193547E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
         <v>38</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>0.16129032258064516</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A54" s="11" t="s">
         <v>39</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>0.30645161290322581</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
         <v>40</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>0.14516129032258066</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A56" s="11" t="s">
         <v>41</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>0.22580645161290322</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
         <v>42</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>0.11290322580645161</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="41.45">
+    <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A58" s="11" t="s">
         <v>32</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
         <v>21</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A60" s="11" t="s">
         <v>22</v>
       </c>
@@ -7920,22 +7920,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C61" s="5"/>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C62" s="5"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A63" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C63" s="5"/>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C64" s="5"/>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A65" s="8" t="s">
         <v>44</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>3.2258064516129031E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A66" s="11" t="s">
         <v>45</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>0.967741935483871</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A67" s="8" t="s">
         <v>21</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A68" s="11" t="s">
         <v>22</v>
       </c>
@@ -7984,23 +7984,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B69" s="20"/>
       <c r="C69" s="21"/>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C70" s="5"/>
     </row>
-    <row r="71" spans="1:3" ht="41.45">
+    <row r="71" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A71" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C71" s="5"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C72" s="5"/>
     </row>
-    <row r="73" spans="1:3" ht="27.6">
+    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A73" s="8" t="s">
         <v>47</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>0.37878787878787878</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A74" s="11" t="s">
         <v>48</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>3.787878787878788E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A75" s="8" t="s">
         <v>49</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>6.0606060606060608E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="27.6">
+    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A76" s="11" t="s">
         <v>50</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>3.0303030303030304E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="27.6">
+    <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A77" s="8" t="s">
         <v>51</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>0.12878787878787878</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A78" s="11" t="s">
         <v>52</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>7.575757575757576E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="27.6">
+    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A79" s="8" t="s">
         <v>53</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>7.575757575757576E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A80" s="11" t="s">
         <v>54</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>0.28030303030303028</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A81" s="8" t="s">
         <v>22</v>
       </c>
@@ -8109,13 +8109,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C82" s="5"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A84" s="11" t="s">
         <v>55</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>4.8387096774193547E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A85" s="8" t="s">
         <v>56</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>0.16129032258064516</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A86" s="11" t="s">
         <v>57</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>0.72580645161290325</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A87" s="8" t="s">
         <v>58</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>6.4516129032258063E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="41.45">
+    <row r="88" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A88" s="11" t="s">
         <v>32</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A89" s="8" t="s">
         <v>21</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A90" s="15" t="s">
         <v>22</v>
       </c>
@@ -8200,17 +8200,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="82.9">
+    <row r="93" spans="1:3" ht="75" x14ac:dyDescent="0.15">
       <c r="A93" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C93" s="25"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="3"/>
       <c r="C94" s="25"/>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A95" s="11" t="s">
         <v>44</v>
       </c>
@@ -8219,7 +8219,7 @@
       </c>
       <c r="C95" s="27"/>
     </row>
-    <row r="96" spans="1:3" ht="14.45">
+    <row r="96" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>45</v>
       </c>
@@ -8228,7 +8228,7 @@
       </c>
       <c r="C96" s="23"/>
     </row>
-    <row r="97" spans="1:4" ht="41.45">
+    <row r="97" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A97" s="11" t="s">
         <v>60</v>
       </c>
@@ -8237,7 +8237,7 @@
       </c>
       <c r="C97" s="27"/>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A98" s="8" t="s">
         <v>21</v>
       </c>
@@ -8246,7 +8246,7 @@
       </c>
       <c r="C98" s="23"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A99" s="11" t="s">
         <v>22</v>
       </c>
@@ -8256,13 +8256,13 @@
       </c>
       <c r="C99" s="24"/>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C100" s="26"/>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C101" s="26"/>
     </row>
-    <row r="102" spans="1:4" ht="82.9">
+    <row r="102" spans="1:4" ht="90" x14ac:dyDescent="0.15">
       <c r="A102" s="6" t="s">
         <v>61</v>
       </c>
@@ -8276,11 +8276,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B103" s="7"/>
       <c r="C103" s="33"/>
     </row>
-    <row r="104" spans="1:4" ht="27.6">
+    <row r="104" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A104" s="8" t="s">
         <v>65</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="27.6">
+    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A105" s="11" t="s">
         <v>66</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="41.45">
+    <row r="106" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A106" s="8" t="s">
         <v>67</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="27.6">
+    <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A107" s="11" t="s">
         <v>68</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="55.15">
+    <row r="108" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A108" s="8" t="s">
         <v>69</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="27.6">
+    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A109" s="11" t="s">
         <v>70</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A110" s="8" t="s">
         <v>71</v>
       </c>
@@ -8378,16 +8378,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="55.15">
+    <row r="113" spans="1:2" ht="60" x14ac:dyDescent="0.15">
       <c r="A113" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="14.45">
+    <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
     </row>
-    <row r="115" spans="1:2" ht="14.45">
+    <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="30" t="s">
         <v>73</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="14.45">
+    <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="29" t="s">
         <v>74</v>
       </c>
@@ -8403,7 +8403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="14.45">
+    <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="30" t="s">
         <v>22</v>
       </c>
@@ -8422,19 +8422,19 @@
   <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G108" sqref="G108"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49:B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="22.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.6">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
         <v>81</v>
       </c>
@@ -8445,23 +8445,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="22"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C5" s="22"/>
     </row>
-    <row r="6" spans="1:3" ht="41.45">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -8470,7 +8470,7 @@
       </c>
       <c r="C6" s="23"/>
     </row>
-    <row r="7" spans="1:3" ht="27.6">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
@@ -8479,19 +8479,19 @@
       </c>
       <c r="C7" s="24"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" s="22"/>
     </row>
-    <row r="9" spans="1:3" ht="41.45">
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="22"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" s="22"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
@@ -8500,7 +8500,7 @@
       </c>
       <c r="C11" s="23"/>
     </row>
-    <row r="12" spans="1:3" ht="27.6">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
@@ -8509,7 +8509,7 @@
       </c>
       <c r="C12" s="24"/>
     </row>
-    <row r="13" spans="1:3" ht="27.6">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
@@ -8518,7 +8518,7 @@
       </c>
       <c r="C13" s="23"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
@@ -8527,22 +8527,22 @@
       </c>
       <c r="C14" s="24"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" ht="41.45">
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
         <v>12</v>
       </c>
@@ -8554,7 +8554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="27.6">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
         <v>13</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="27.6">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>14</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>0.47368421052631576</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
         <v>15</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="27.6">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
         <v>16</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="27.6">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="s">
         <v>17</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
         <v>18</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>0.38596491228070173</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="s">
         <v>19</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>0.12280701754385964</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="41.45">
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
         <v>20</v>
       </c>
@@ -8650,7 +8650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="s">
         <v>21</v>
       </c>
@@ -8662,7 +8662,7 @@
         <v>1.7543859649122806E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
         <v>22</v>
       </c>
@@ -8675,22 +8675,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
         <v>24</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="s">
         <v>25</v>
       </c>
@@ -8714,7 +8714,7 @@
         <v>0.31578947368421051</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="27.6">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
         <v>26</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
         <v>27</v>
       </c>
@@ -8738,7 +8738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
         <v>28</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="s">
         <v>29</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
         <v>30</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="27.6">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="s">
         <v>31</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="41.45">
+    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
         <v>32</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="s">
         <v>21</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>1.7543859649122806E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
         <v>22</v>
       </c>
@@ -8823,22 +8823,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C45" s="5"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C46" s="5"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C48" s="5"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
         <v>34</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>7.0175438596491224E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A50" s="16" t="s">
         <v>35</v>
       </c>
@@ -8862,7 +8862,7 @@
         <v>0.31578947368421051</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
         <v>36</v>
       </c>
@@ -8874,7 +8874,7 @@
         <v>0.12280701754385964</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A52" s="11" t="s">
         <v>37</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
         <v>38</v>
       </c>
@@ -8898,7 +8898,7 @@
         <v>8.771929824561403E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A54" s="11" t="s">
         <v>39</v>
       </c>
@@ -8910,7 +8910,7 @@
         <v>0.12280701754385964</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
         <v>40</v>
       </c>
@@ -8922,7 +8922,7 @@
         <v>0.12280701754385964</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A56" s="11" t="s">
         <v>41</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>7.0175438596491224E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
         <v>42</v>
       </c>
@@ -8946,7 +8946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="41.45">
+    <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A58" s="11" t="s">
         <v>32</v>
       </c>
@@ -8958,7 +8958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
         <v>21</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>3.5087719298245612E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A60" s="11" t="s">
         <v>22</v>
       </c>
@@ -8983,22 +8983,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C61" s="5"/>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C62" s="5"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A63" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C63" s="5"/>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C64" s="5"/>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A65" s="8" t="s">
         <v>44</v>
       </c>
@@ -9010,7 +9010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A66" s="11" t="s">
         <v>45</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A67" s="8" t="s">
         <v>21</v>
       </c>
@@ -9034,7 +9034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A68" s="11" t="s">
         <v>22</v>
       </c>
@@ -9047,23 +9047,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B69" s="20"/>
       <c r="C69" s="21"/>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C70" s="5"/>
     </row>
-    <row r="71" spans="1:3" ht="41.45">
+    <row r="71" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A71" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C71" s="5"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C72" s="5"/>
     </row>
-    <row r="73" spans="1:3" ht="27.6">
+    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A73" s="8" t="s">
         <v>47</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>0.34285714285714286</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A74" s="11" t="s">
         <v>48</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A75" s="8" t="s">
         <v>49</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="27.6">
+    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A76" s="11" t="s">
         <v>50</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>2.8571428571428571E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="27.6">
+    <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A77" s="8" t="s">
         <v>51</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A78" s="11" t="s">
         <v>52</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="27.6">
+    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A79" s="8" t="s">
         <v>53</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A80" s="11" t="s">
         <v>54</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A81" s="8" t="s">
         <v>22</v>
       </c>
@@ -9172,13 +9172,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C82" s="5"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A84" s="11" t="s">
         <v>55</v>
       </c>
@@ -9190,7 +9190,7 @@
         <v>0.59649122807017541</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A85" s="8" t="s">
         <v>56</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>0.19298245614035087</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A86" s="11" t="s">
         <v>57</v>
       </c>
@@ -9214,7 +9214,7 @@
         <v>0.15789473684210525</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A87" s="8" t="s">
         <v>58</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>3.5087719298245612E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="41.45">
+    <row r="88" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A88" s="11" t="s">
         <v>32</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A89" s="8" t="s">
         <v>21</v>
       </c>
@@ -9250,7 +9250,7 @@
         <v>1.7543859649122806E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A90" s="15" t="s">
         <v>22</v>
       </c>
@@ -9263,17 +9263,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="82.9">
+    <row r="93" spans="1:3" ht="75" x14ac:dyDescent="0.15">
       <c r="A93" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C93" s="25"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="3"/>
       <c r="C94" s="25"/>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A95" s="11" t="s">
         <v>44</v>
       </c>
@@ -9282,7 +9282,7 @@
       </c>
       <c r="C95" s="27"/>
     </row>
-    <row r="96" spans="1:3" ht="14.45">
+    <row r="96" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>45</v>
       </c>
@@ -9291,7 +9291,7 @@
       </c>
       <c r="C96" s="23"/>
     </row>
-    <row r="97" spans="1:4" ht="41.45">
+    <row r="97" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A97" s="11" t="s">
         <v>60</v>
       </c>
@@ -9300,7 +9300,7 @@
       </c>
       <c r="C97" s="27"/>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A98" s="8" t="s">
         <v>21</v>
       </c>
@@ -9309,7 +9309,7 @@
       </c>
       <c r="C98" s="23"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A99" s="11" t="s">
         <v>22</v>
       </c>
@@ -9319,13 +9319,13 @@
       </c>
       <c r="C99" s="24"/>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C100" s="26"/>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C101" s="26"/>
     </row>
-    <row r="102" spans="1:4" ht="82.9">
+    <row r="102" spans="1:4" ht="90" x14ac:dyDescent="0.15">
       <c r="A102" s="6" t="s">
         <v>61</v>
       </c>
@@ -9339,11 +9339,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B103" s="7"/>
       <c r="C103" s="33"/>
     </row>
-    <row r="104" spans="1:4" ht="27.6">
+    <row r="104" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A104" s="8" t="s">
         <v>65</v>
       </c>
@@ -9357,7 +9357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="27.6">
+    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A105" s="11" t="s">
         <v>66</v>
       </c>
@@ -9371,7 +9371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="41.45">
+    <row r="106" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A106" s="8" t="s">
         <v>67</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="27.6">
+    <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A107" s="11" t="s">
         <v>68</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="55.15">
+    <row r="108" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A108" s="8" t="s">
         <v>69</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="27.6">
+    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A109" s="11" t="s">
         <v>70</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A110" s="8" t="s">
         <v>71</v>
       </c>
@@ -9441,16 +9441,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="55.15">
+    <row r="113" spans="1:2" ht="60" x14ac:dyDescent="0.15">
       <c r="A113" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="14.45">
+    <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
     </row>
-    <row r="115" spans="1:2" ht="14.45">
+    <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="30" t="s">
         <v>73</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="14.45">
+    <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="29" t="s">
         <v>74</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="14.45">
+    <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="30" t="s">
         <v>22</v>
       </c>
@@ -9485,19 +9485,19 @@
   <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E108" sqref="E108"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49:B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="22.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.6">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
         <v>82</v>
       </c>
@@ -9508,23 +9508,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="22"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C5" s="22"/>
     </row>
-    <row r="6" spans="1:3" ht="41.45">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -9533,7 +9533,7 @@
       </c>
       <c r="C6" s="23"/>
     </row>
-    <row r="7" spans="1:3" ht="27.6">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
@@ -9542,19 +9542,19 @@
       </c>
       <c r="C7" s="24"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" s="22"/>
     </row>
-    <row r="9" spans="1:3" ht="41.45">
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="22"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" s="22"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
@@ -9563,7 +9563,7 @@
       </c>
       <c r="C11" s="23"/>
     </row>
-    <row r="12" spans="1:3" ht="27.6">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
@@ -9572,7 +9572,7 @@
       </c>
       <c r="C12" s="24"/>
     </row>
-    <row r="13" spans="1:3" ht="27.6">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
@@ -9581,7 +9581,7 @@
       </c>
       <c r="C13" s="23"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
@@ -9590,22 +9590,22 @@
       </c>
       <c r="C14" s="24"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" ht="41.45">
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
         <v>12</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>1.7241379310344827E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="27.6">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
         <v>13</v>
       </c>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="27.6">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>14</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>0.74137931034482762</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
         <v>15</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="27.6">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
         <v>16</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="27.6">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="s">
         <v>17</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
         <v>18</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>0.15517241379310345</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="s">
         <v>19</v>
       </c>
@@ -9701,7 +9701,7 @@
         <v>8.6206896551724144E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="41.45">
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
         <v>20</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="s">
         <v>21</v>
       </c>
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
         <v>22</v>
       </c>
@@ -9738,22 +9738,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
         <v>24</v>
       </c>
@@ -9765,7 +9765,7 @@
         <v>0.56896551724137934</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="s">
         <v>25</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>0.43103448275862066</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="27.6">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
         <v>26</v>
       </c>
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
         <v>27</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
         <v>28</v>
       </c>
@@ -9813,7 +9813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="s">
         <v>29</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
         <v>30</v>
       </c>
@@ -9837,7 +9837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="27.6">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="s">
         <v>31</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="41.45">
+    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
         <v>32</v>
       </c>
@@ -9861,7 +9861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="s">
         <v>21</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
         <v>22</v>
       </c>
@@ -9886,22 +9886,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C45" s="5"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C46" s="5"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C48" s="5"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
         <v>34</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>6.8965517241379309E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A50" s="16" t="s">
         <v>35</v>
       </c>
@@ -9925,7 +9925,7 @@
         <v>0.2413793103448276</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
         <v>36</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>5.1724137931034482E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A52" s="11" t="s">
         <v>37</v>
       </c>
@@ -9949,7 +9949,7 @@
         <v>6.8965517241379309E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
         <v>38</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>0.13793103448275862</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A54" s="11" t="s">
         <v>39</v>
       </c>
@@ -9973,7 +9973,7 @@
         <v>8.6206896551724144E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
         <v>40</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>0.1206896551724138</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A56" s="11" t="s">
         <v>41</v>
       </c>
@@ -9997,7 +9997,7 @@
         <v>0.20689655172413793</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
         <v>42</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>1.7241379310344827E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="41.45">
+    <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A58" s="11" t="s">
         <v>32</v>
       </c>
@@ -10021,7 +10021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
         <v>21</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A60" s="11" t="s">
         <v>22</v>
       </c>
@@ -10046,22 +10046,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C61" s="5"/>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C62" s="5"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A63" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C63" s="5"/>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C64" s="5"/>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A65" s="8" t="s">
         <v>44</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A66" s="11" t="s">
         <v>45</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A67" s="8" t="s">
         <v>21</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A68" s="11" t="s">
         <v>22</v>
       </c>
@@ -10110,23 +10110,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B69" s="20"/>
       <c r="C69" s="21"/>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C70" s="5"/>
     </row>
-    <row r="71" spans="1:3" ht="41.45">
+    <row r="71" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A71" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C71" s="5"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C72" s="5"/>
     </row>
-    <row r="73" spans="1:3" ht="27.6">
+    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A73" s="8" t="s">
         <v>47</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>0.48571428571428571</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A74" s="11" t="s">
         <v>48</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>1.4285714285714285E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A75" s="8" t="s">
         <v>49</v>
       </c>
@@ -10162,7 +10162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="27.6">
+    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A76" s="11" t="s">
         <v>50</v>
       </c>
@@ -10174,7 +10174,7 @@
         <v>2.8571428571428571E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="27.6">
+    <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A77" s="8" t="s">
         <v>51</v>
       </c>
@@ -10186,7 +10186,7 @@
         <v>0.21428571428571427</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A78" s="11" t="s">
         <v>52</v>
       </c>
@@ -10198,7 +10198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="27.6">
+    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.15">
       <c r="A79" s="8" t="s">
         <v>53</v>
       </c>
@@ -10210,7 +10210,7 @@
         <v>4.2857142857142858E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A80" s="11" t="s">
         <v>54</v>
       </c>
@@ -10222,7 +10222,7 @@
         <v>0.21428571428571427</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A81" s="8" t="s">
         <v>22</v>
       </c>
@@ -10235,13 +10235,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C82" s="5"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A84" s="11" t="s">
         <v>55</v>
       </c>
@@ -10253,7 +10253,7 @@
         <v>0.37931034482758619</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A85" s="8" t="s">
         <v>56</v>
       </c>
@@ -10265,7 +10265,7 @@
         <v>0.25862068965517243</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A86" s="11" t="s">
         <v>57</v>
       </c>
@@ -10277,7 +10277,7 @@
         <v>0.36206896551724138</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A87" s="8" t="s">
         <v>58</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="41.45">
+    <row r="88" spans="1:3" ht="45" x14ac:dyDescent="0.15">
       <c r="A88" s="11" t="s">
         <v>32</v>
       </c>
@@ -10301,7 +10301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A89" s="8" t="s">
         <v>21</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A90" s="15" t="s">
         <v>22</v>
       </c>
@@ -10326,17 +10326,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="82.9">
+    <row r="93" spans="1:3" ht="75" x14ac:dyDescent="0.15">
       <c r="A93" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C93" s="25"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="3"/>
       <c r="C94" s="25"/>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A95" s="11" t="s">
         <v>44</v>
       </c>
@@ -10345,7 +10345,7 @@
       </c>
       <c r="C95" s="27"/>
     </row>
-    <row r="96" spans="1:3" ht="14.45">
+    <row r="96" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>45</v>
       </c>
@@ -10354,7 +10354,7 @@
       </c>
       <c r="C96" s="23"/>
     </row>
-    <row r="97" spans="1:4" ht="41.45">
+    <row r="97" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A97" s="11" t="s">
         <v>60</v>
       </c>
@@ -10363,7 +10363,7 @@
       </c>
       <c r="C97" s="27"/>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A98" s="8" t="s">
         <v>21</v>
       </c>
@@ -10372,7 +10372,7 @@
       </c>
       <c r="C98" s="23"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A99" s="11" t="s">
         <v>22</v>
       </c>
@@ -10382,13 +10382,13 @@
       </c>
       <c r="C99" s="24"/>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C100" s="26"/>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C101" s="26"/>
     </row>
-    <row r="102" spans="1:4" ht="82.9">
+    <row r="102" spans="1:4" ht="90" x14ac:dyDescent="0.15">
       <c r="A102" s="6" t="s">
         <v>61</v>
       </c>
@@ -10402,11 +10402,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B103" s="7"/>
       <c r="C103" s="33"/>
     </row>
-    <row r="104" spans="1:4" ht="27.6">
+    <row r="104" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A104" s="8" t="s">
         <v>65</v>
       </c>
@@ -10420,7 +10420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="27.6">
+    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A105" s="11" t="s">
         <v>66</v>
       </c>
@@ -10434,7 +10434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="41.45">
+    <row r="106" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A106" s="8" t="s">
         <v>67</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="27.6">
+    <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A107" s="11" t="s">
         <v>68</v>
       </c>
@@ -10462,7 +10462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="55.15">
+    <row r="108" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A108" s="8" t="s">
         <v>69</v>
       </c>
@@ -10476,7 +10476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="27.6">
+    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A109" s="11" t="s">
         <v>70</v>
       </c>
@@ -10490,7 +10490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A110" s="8" t="s">
         <v>71</v>
       </c>
@@ -10504,16 +10504,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="55.15">
+    <row r="113" spans="1:2" ht="60" x14ac:dyDescent="0.15">
       <c r="A113" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="14.45">
+    <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
     </row>
-    <row r="115" spans="1:2" ht="14.45">
+    <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="30" t="s">
         <v>73</v>
       </c>
@@ -10521,7 +10521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="14.45">
+    <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="29" t="s">
         <v>74</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="14.45">
+    <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="30" t="s">
         <v>22</v>
       </c>
